--- a/RADIO MENU CREATOR v1.6.xlsx
+++ b/RADIO MENU CREATOR v1.6.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MY RADIO MENU -1-" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="RADIO MENU 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -941,7 +941,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1124,9 +1124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6383160</xdr:colOff>
+      <xdr:colOff>6382800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>720360</xdr:rowOff>
+      <xdr:rowOff>720000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1136,7 +1136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6386040" y="19080"/>
-          <a:ext cx="6410520" cy="701280"/>
+          <a:ext cx="6410160" cy="700920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,9 +1166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>393840</xdr:colOff>
+      <xdr:colOff>393480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1178,7 +1178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5179320" y="19440"/>
-          <a:ext cx="1148040" cy="1838520"/>
+          <a:ext cx="1147680" cy="1838160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,9 +1208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3411360</xdr:colOff>
+      <xdr:colOff>3411000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>405000</xdr:rowOff>
+      <xdr:rowOff>404640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1220,7 +1220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="422640" y="252000"/>
-          <a:ext cx="4668120" cy="153000"/>
+          <a:ext cx="4667760" cy="152640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,9 +1273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>541440</xdr:rowOff>
+      <xdr:rowOff>541080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1285,7 +1285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5166720" y="25200"/>
-          <a:ext cx="1121040" cy="516240"/>
+          <a:ext cx="1120680" cy="515880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,9 +1338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>10831320</xdr:colOff>
+      <xdr:colOff>10830960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>734760</xdr:rowOff>
+      <xdr:rowOff>734400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1350,7 +1350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12894840" y="554400"/>
-          <a:ext cx="4349880" cy="180360"/>
+          <a:ext cx="4349520" cy="180000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,9 +1405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2497320</xdr:colOff>
+      <xdr:colOff>2496960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>306360</xdr:rowOff>
+      <xdr:rowOff>306000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1417,7 +1417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26280"/>
-          <a:ext cx="4176720" cy="280080"/>
+          <a:ext cx="4176360" cy="279720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1470,9 +1470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2425680</xdr:colOff>
+      <xdr:colOff>2425320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>289800</xdr:rowOff>
+      <xdr:rowOff>289440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1482,7 +1482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36000" y="9720"/>
-          <a:ext cx="4069080" cy="280080"/>
+          <a:ext cx="4068720" cy="279720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1529,7 +1529,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12727080</xdr:colOff>
+      <xdr:colOff>12727440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1537,7 +1537,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>13432680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>705600</xdr:rowOff>
+      <xdr:rowOff>705240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,8 +1550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="19140480" y="0"/>
-          <a:ext cx="705600" cy="705600"/>
+          <a:off x="19140840" y="0"/>
+          <a:ext cx="705240" cy="705240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,9 +1572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>713880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>695880</xdr:rowOff>
+      <xdr:rowOff>695520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1584,7 +1584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19866600" y="0"/>
-          <a:ext cx="704160" cy="695880"/>
+          <a:ext cx="703800" cy="695520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,9 +1669,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>392400</xdr:colOff>
+      <xdr:colOff>392040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>282600</xdr:rowOff>
+      <xdr:rowOff>282240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1681,7 +1681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5333760" y="577080"/>
-          <a:ext cx="992160" cy="823680"/>
+          <a:ext cx="991800" cy="823320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,9 +1864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>704880</xdr:rowOff>
+      <xdr:rowOff>704520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1876,7 +1876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5636160" y="529200"/>
-          <a:ext cx="118440" cy="175680"/>
+          <a:ext cx="118080" cy="175320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,9 +1906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5828760</xdr:colOff>
+      <xdr:colOff>5828400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>700920</xdr:rowOff>
+      <xdr:rowOff>700560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1918,7 +1918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6432840" y="38880"/>
-          <a:ext cx="5809320" cy="662040"/>
+          <a:ext cx="5808960" cy="661680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1973,7 +1973,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>missionCommands.removeItem(x1)</a:t>
+            <a:t>missionCommands.removeItem(c1)</a:t>
           </a:r>
           <a:br/>
           <a:r>
@@ -1984,7 +1984,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>missionCommands.removeItemForCoalition(coalition.side.BLUE, x1)</a:t>
+            <a:t>missionCommands.removeItemForCoalition(coalition.side.BLUE, c1)</a:t>
           </a:r>
           <a:br/>
           <a:r>
@@ -1995,7 +1995,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="Microsoft YaHei"/>
             </a:rPr>
-            <a:t>missionCommands.removeItemForCoalition(coalition.side.RED, x1) </a:t>
+            <a:t>missionCommands.removeItemForCoalition(coalition.side.RED, c1) </a:t>
           </a:r>
           <a:r>
             <a:rPr b="1" lang="el-GR" sz="1100" spc="-1" strike="noStrike">
@@ -2024,9 +2024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>120240</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>274680</xdr:rowOff>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2036,7 +2036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5641200" y="857160"/>
-          <a:ext cx="118440" cy="175680"/>
+          <a:ext cx="118080" cy="175320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2091,9 +2091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2103,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5627160" y="1200600"/>
-          <a:ext cx="118440" cy="175680"/>
+          <a:ext cx="118080" cy="175320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4056,7 +4056,10 @@
         <v/>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20" t="str">
+        <f aca="false">IF(B20&lt;&gt;"",B20,"")</f>
+        <v/>
+      </c>
       <c r="J20" s="20" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4067,10 @@
         <f aca="false">K19</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="20" t="str">
+        <f aca="false">IF(C20&lt;&gt;"",C20,"")</f>
+        <v/>
+      </c>
       <c r="M20" s="20"/>
       <c r="N20" s="20" t="str">
         <f aca="false">N19</f>
@@ -4141,7 +4147,10 @@
         <v/>
       </c>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="str">
+        <f aca="false">IF(B21&lt;&gt;"",B21,"")</f>
+        <v/>
+      </c>
       <c r="J21" s="20" t="s">
         <v>5</v>
       </c>
@@ -4149,7 +4158,10 @@
         <f aca="false">K20</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="20" t="str">
+        <f aca="false">IF(C21&lt;&gt;"",C21,"")</f>
+        <v/>
+      </c>
       <c r="M21" s="20"/>
       <c r="N21" s="20" t="str">
         <f aca="false">N20</f>
@@ -4226,7 +4238,10 @@
         <v/>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="str">
+        <f aca="false">IF(B22&lt;&gt;"",B22,"")</f>
+        <v/>
+      </c>
       <c r="J22" s="20" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4249,10 @@
         <f aca="false">K21</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="20" t="str">
+        <f aca="false">IF(C22&lt;&gt;"",C22,"")</f>
+        <v/>
+      </c>
       <c r="M22" s="20"/>
       <c r="N22" s="20" t="str">
         <f aca="false">N21</f>
@@ -4311,7 +4329,10 @@
         <v/>
       </c>
       <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="str">
+        <f aca="false">IF(B23&lt;&gt;"",B23,"")</f>
+        <v/>
+      </c>
       <c r="J23" s="20" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4340,10 @@
         <f aca="false">K22</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L23" s="20"/>
+      <c r="L23" s="20" t="str">
+        <f aca="false">IF(C23&lt;&gt;"",C23,"")</f>
+        <v/>
+      </c>
       <c r="M23" s="20"/>
       <c r="N23" s="20" t="str">
         <f aca="false">N22</f>
@@ -4396,7 +4420,10 @@
         <v/>
       </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="str">
+        <f aca="false">IF(B24&lt;&gt;"",B24,"")</f>
+        <v/>
+      </c>
       <c r="J24" s="20" t="s">
         <v>5</v>
       </c>
@@ -4404,7 +4431,10 @@
         <f aca="false">K23</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="20" t="str">
+        <f aca="false">IF(C24&lt;&gt;"",C24,"")</f>
+        <v/>
+      </c>
       <c r="M24" s="20"/>
       <c r="N24" s="20" t="str">
         <f aca="false">N23</f>
@@ -4481,7 +4511,10 @@
         <v/>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="str">
+        <f aca="false">IF(B25&lt;&gt;"",B25,"")</f>
+        <v/>
+      </c>
       <c r="J25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4522,10 @@
         <f aca="false">K24</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="20" t="str">
+        <f aca="false">IF(C25&lt;&gt;"",C25,"")</f>
+        <v/>
+      </c>
       <c r="M25" s="20"/>
       <c r="N25" s="20" t="str">
         <f aca="false">N24</f>
@@ -4566,7 +4602,10 @@
         <v/>
       </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="str">
+        <f aca="false">IF(B26&lt;&gt;"",B26,"")</f>
+        <v/>
+      </c>
       <c r="J26" s="20" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4613,10 @@
         <f aca="false">K25</f>
         <v>addSubMenu</v>
       </c>
-      <c r="L26" s="20"/>
+      <c r="L26" s="20" t="str">
+        <f aca="false">IF(C26&lt;&gt;"",C26,"")</f>
+        <v/>
+      </c>
       <c r="M26" s="20"/>
       <c r="N26" s="20" t="str">
         <f aca="false">N25</f>
